--- a/Documents/Projektmanagement/Schlusspräsentation_Projektmanagement.xlsx
+++ b/Documents/Projektmanagement/Schlusspräsentation_Projektmanagement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t>Phase</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Iterationsdauer: 1 -3 Wochen</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>-</t>
@@ -207,6 +204,18 @@
   </si>
   <si>
     <t>D, E</t>
+  </si>
+  <si>
+    <t>E, F</t>
+  </si>
+  <si>
+    <t>E, EBAA, EBC, F</t>
+  </si>
+  <si>
+    <t>E, EBB, EBC, EBCA, F</t>
+  </si>
+  <si>
+    <t>E, ECB, ECC, F</t>
   </si>
 </sst>
 </file>
@@ -248,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,11 +283,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkUp">
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
@@ -553,9 +557,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -612,6 +613,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -621,24 +682,12 @@
     <xf numFmtId="16" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,56 +700,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1099,7 +1103,7 @@
   <dimension ref="C3:AK35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1118,7 @@
     <col min="10" max="14" width="7" customWidth="1"/>
     <col min="15" max="18" width="7.28515625" customWidth="1"/>
     <col min="19" max="20" width="12.7109375" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" customWidth="1"/>
     <col min="22" max="22" width="5.28515625" customWidth="1"/>
     <col min="24" max="24" width="9.85546875" customWidth="1"/>
     <col min="28" max="28" width="4.7109375" customWidth="1"/>
@@ -1124,106 +1128,106 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="41" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="3:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>42</v>
+      <c r="F4" s="43" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="3:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="46"/>
+      <c r="E5" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="46"/>
+      <c r="E6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="46"/>
+      <c r="E7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="46"/>
+      <c r="E8" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="46"/>
+      <c r="E9" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="J14" s="1">
@@ -1264,38 +1268,38 @@
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="29"/>
-      <c r="J16" s="32">
+      <c r="I16" s="28"/>
+      <c r="J16" s="31">
         <v>41905</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="32">
         <v>41912</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="33">
         <v>41919</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="34">
         <v>41926</v>
       </c>
-      <c r="N16" s="33">
+      <c r="N16" s="32">
         <v>41933</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="33">
         <v>41940</v>
       </c>
-      <c r="P16" s="35">
+      <c r="P16" s="34">
         <v>41947</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="34">
         <v>41954</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="35">
         <v>41961</v>
       </c>
-      <c r="S16" s="35">
+      <c r="S16" s="34">
         <v>41968</v>
       </c>
-      <c r="T16" s="33">
+      <c r="T16" s="32">
         <v>41975</v>
       </c>
       <c r="U16" s="6">
@@ -1303,315 +1307,317 @@
       </c>
     </row>
     <row r="17" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="I17" s="29"/>
-      <c r="J17" s="48" t="s">
+      <c r="I17" s="28"/>
+      <c r="J17" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49" t="s">
+      <c r="K17" s="67"/>
+      <c r="L17" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="48" t="s">
+      <c r="M17" s="67"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="50"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="69"/>
       <c r="U17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X17" s="71" t="s">
+      <c r="X17" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
       <c r="AI17" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="I18" s="29"/>
-      <c r="J18" s="59" t="s">
+      <c r="I18" s="28"/>
+      <c r="J18" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="59"/>
-      <c r="L18" s="58" t="s">
+      <c r="K18" s="74"/>
+      <c r="L18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="62" t="s">
+      <c r="M18" s="74"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61" t="s">
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61" t="s">
+      <c r="R18" s="56"/>
+      <c r="S18" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="63"/>
+      <c r="T18" s="57"/>
       <c r="U18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X18" s="26">
+      <c r="X18" s="25">
         <v>41912</v>
       </c>
-      <c r="Y18" s="76" t="s">
+      <c r="Y18" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="37" t="s">
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="AC18" s="38">
+      <c r="AC18" s="37">
         <v>41912</v>
       </c>
-      <c r="AD18" s="77" t="s">
+      <c r="AD18" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="40" t="s">
+      <c r="AE18" s="55"/>
+      <c r="AF18" s="55"/>
+      <c r="AG18" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AI18" s="22" t="s">
+      <c r="AI18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ18" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="AJ18" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK18" s="69"/>
+      <c r="AK18" s="47"/>
     </row>
     <row r="19" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="54" t="s">
+      <c r="J19" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="64"/>
+      <c r="L19" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="55"/>
-      <c r="L19" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="53" t="s">
+      <c r="M19" s="71"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="66" t="s">
+      <c r="R19" s="59"/>
+      <c r="S19" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" s="64"/>
+      <c r="U19" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="64"/>
-      <c r="S19" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="T19" s="55"/>
-      <c r="U19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="26">
+      <c r="X19" s="25">
         <v>41933</v>
       </c>
-      <c r="Y19" s="76" t="s">
+      <c r="Y19" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="37" t="s">
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="AC19" s="38">
+      <c r="AC19" s="37">
         <v>41933</v>
       </c>
-      <c r="AD19" s="77" t="s">
+      <c r="AD19" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="77"/>
-      <c r="AF19" s="77"/>
-      <c r="AG19" s="40" t="s">
+      <c r="AE19" s="55"/>
+      <c r="AF19" s="55"/>
+      <c r="AG19" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AI19" s="20" t="s">
+      <c r="AI19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AJ19" s="74" t="s">
+      <c r="AJ19" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="AK19" s="74"/>
+      <c r="AK19" s="52"/>
     </row>
     <row r="20" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="J20" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="70"/>
+      <c r="L20" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" s="57"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="56" t="s">
+      <c r="M20" s="72"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="67" t="s">
+      <c r="R20" s="61"/>
+      <c r="S20" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="66"/>
+      <c r="U20" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="X20" s="25">
+        <v>41961</v>
+      </c>
+      <c r="Y20" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC20" s="37">
+        <v>41975</v>
+      </c>
+      <c r="AD20" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE20" s="55"/>
+      <c r="AF20" s="55"/>
+      <c r="AG20" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ20" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK20" s="53"/>
+    </row>
+    <row r="21" spans="7:37" x14ac:dyDescent="0.25">
+      <c r="I21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="64"/>
+      <c r="L21" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="71"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="T20" s="68"/>
-      <c r="U20" s="19"/>
-      <c r="X20" s="26">
-        <v>41961</v>
-      </c>
-      <c r="Y20" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC20" s="38">
-        <v>41975</v>
-      </c>
-      <c r="AD20" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE20" s="77"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ20" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK20" s="75"/>
-    </row>
-    <row r="21" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="I21" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="54"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="53" t="s">
+      <c r="P21" s="59"/>
+      <c r="Q21" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="R21" s="64"/>
-      <c r="S21" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="T21" s="55"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21" s="64"/>
       <c r="U21" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="X21" s="26">
+        <v>58</v>
+      </c>
+      <c r="X21" s="25">
         <v>41982</v>
       </c>
-      <c r="Y21" s="76" t="s">
+      <c r="Y21" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="37" t="s">
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AC21" s="39">
+      <c r="AC21" s="38">
         <v>41982</v>
       </c>
-      <c r="AD21" s="47" t="s">
+      <c r="AD21" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="46"/>
       <c r="AG21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AI21" s="20" t="s">
+      <c r="AI21" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AJ21" s="74" t="s">
+      <c r="AJ21" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AK21" s="74"/>
+      <c r="AK21" s="52"/>
     </row>
     <row r="22" spans="7:37" x14ac:dyDescent="0.25">
       <c r="I22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="57" t="s">
+      <c r="J22" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="70"/>
+      <c r="L22" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="52"/>
-      <c r="L22" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="56" t="s">
+      <c r="M22" s="72"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" s="65"/>
-      <c r="S22" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="T22" s="52"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="T22" s="70"/>
       <c r="U22" s="16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AB22" s="3"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AI22" s="23" t="s">
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AI22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="AJ22" s="75" t="s">
+      <c r="AJ22" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AK22" s="75"/>
+      <c r="AK22" s="53"/>
     </row>
     <row r="23" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="I23" s="29"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="10"/>
       <c r="K23" s="11" t="s">
         <v>3</v>
@@ -1656,65 +1662,93 @@
       </c>
     </row>
     <row r="26" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="G26" s="27"/>
-      <c r="V26" s="31"/>
+      <c r="G26" s="26"/>
+      <c r="V26" s="30"/>
     </row>
     <row r="27" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="G27" s="25"/>
-      <c r="V27" s="30"/>
+      <c r="G27" s="24"/>
+      <c r="V27" s="29"/>
     </row>
     <row r="28" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="G28" s="21"/>
-      <c r="V28" s="31"/>
+      <c r="G28" s="20"/>
+      <c r="V28" s="30"/>
     </row>
     <row r="29" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="G29" s="21"/>
-      <c r="V29" s="31"/>
+      <c r="G29" s="20"/>
+      <c r="V29" s="30"/>
     </row>
     <row r="30" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="G30" s="21"/>
-      <c r="V30" s="31"/>
+      <c r="G30" s="20"/>
+      <c r="V30" s="30"/>
     </row>
     <row r="31" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="G31" s="21"/>
-      <c r="V31" s="31"/>
+      <c r="G31" s="20"/>
+      <c r="V31" s="30"/>
     </row>
     <row r="32" spans="7:37" x14ac:dyDescent="0.25">
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
     </row>
     <row r="33" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G33" s="21"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="31"/>
+      <c r="G33" s="20"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="30"/>
     </row>
     <row r="34" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G34" s="21"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="31"/>
+      <c r="G34" s="20"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="30"/>
     </row>
     <row r="35" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="G35" s="21"/>
+      <c r="G35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="AJ18:AK18"/>
     <mergeCell ref="T33:U33"/>
     <mergeCell ref="T34:U34"/>
@@ -1731,34 +1765,6 @@
     <mergeCell ref="AD18:AF18"/>
     <mergeCell ref="AD19:AF19"/>
     <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
